--- a/biology/Zoologie/Doris_pseudoargus/Doris_pseudoargus.xlsx
+++ b/biology/Zoologie/Doris_pseudoargus/Doris_pseudoargus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris pseudoargus, communément appelé Citron de mer ou Doris citron, est une espèce de mollusques de l'ordre des nudibranches et de la famille des Dorididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doris pseudoargus est un mollusque gastéropode marin sans coquille. D'une longueur pouvant atteindre 120 mm, ce nudibranche doridien possède un manteau généralement jaune, parfois rose brun ou vert, ponctué de taches et de tubercules plus foncés. Sa tête est dotée de deux rhinophores lamellés et rétractiles, et, près de sa queue, ses branchies rétractiles, au nombre de huit à dix, composent une sorte de buisson de couleur blanche ou jaune pâle[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doris pseudoargus est un mollusque gastéropode marin sans coquille. D'une longueur pouvant atteindre 120 mm, ce nudibranche doridien possède un manteau généralement jaune, parfois rose brun ou vert, ponctué de taches et de tubercules plus foncés. Sa tête est dotée de deux rhinophores lamellés et rétractiles, et, près de sa queue, ses branchies rétractiles, au nombre de huit à dix, composent une sorte de buisson de couleur blanche ou jaune pâle,.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans de nombreuses langues, le nom vernaculaire de Doris pseudoargus correspond à la traduction du français « Citron de mer ».
-Citron de mer ou Doris citron, dans le monde francophone[3].
-Sea lemon, dans le monde anglophone[3].
-Limón de mar, dans le monde hispanophone[3].
-Meerzitrone, dans le monde germanophone[3].
-Citroenslak, dans le monde néerlandophone[3].</t>
+Citron de mer ou Doris citron, dans le monde francophone.
+Sea lemon, dans le monde anglophone.
+Limón de mar, dans le monde hispanophone.
+Meerzitrone, dans le monde germanophone.
+Citroenslak, dans le monde néerlandophone.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doris pseudoargus prospère sur les fonds marins, en zone intertidale, jusqu'à 300 m de profondeur[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doris pseudoargus prospère sur les fonds marins, en zone intertidale, jusqu'à 300 m de profondeur,.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La limace de mer Doris pseudoargus se rencontre dans l'Atlantique Nord-Est (mer de Norvège, mer du Nord, mer d'Irlande et Manche, notamment) et en mer Méditerranée[3],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La limace de mer Doris pseudoargus se rencontre dans l'Atlantique Nord-Est (mer de Norvège, mer du Nord, mer d'Irlande et Manche, notamment) et en mer Méditerranée,.
 </t>
         </is>
       </c>
